--- a/data/pca/factorExposure/factorExposure_2018-11-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-11-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.07565060126817007</v>
+        <v>-0.05197865761804395</v>
       </c>
       <c r="C2">
-        <v>0.05174591256221595</v>
+        <v>0.002995657274488446</v>
       </c>
       <c r="D2">
-        <v>-0.07599050734705011</v>
+        <v>-0.03381417109985554</v>
       </c>
       <c r="E2">
-        <v>0.01260520607773636</v>
+        <v>0.01149845908188942</v>
       </c>
       <c r="F2">
-        <v>-0.09776510084771291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.03938076996489064</v>
+      </c>
+      <c r="G2">
+        <v>0.100130163231918</v>
+      </c>
+      <c r="H2">
+        <v>-0.07173237866774432</v>
+      </c>
+      <c r="I2">
+        <v>-0.07005284973259381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.1829211300018384</v>
+        <v>-0.1256159532717431</v>
       </c>
       <c r="C3">
-        <v>-0.02267091358018166</v>
+        <v>-0.0389797889751544</v>
       </c>
       <c r="D3">
-        <v>-0.1464113223315626</v>
+        <v>-0.06579996587665218</v>
       </c>
       <c r="E3">
-        <v>0.06077292077751632</v>
+        <v>-0.009717943451328651</v>
       </c>
       <c r="F3">
-        <v>-0.3872240958243043</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.005243475137485789</v>
+      </c>
+      <c r="G3">
+        <v>0.3670449682569659</v>
+      </c>
+      <c r="H3">
+        <v>-0.2763785436366962</v>
+      </c>
+      <c r="I3">
+        <v>-0.04358852347808895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.07162753578058748</v>
+        <v>-0.05868921030206109</v>
       </c>
       <c r="C4">
-        <v>0.02435636458654583</v>
+        <v>-2.636189417857597e-05</v>
       </c>
       <c r="D4">
-        <v>-0.06100142700115286</v>
+        <v>-0.04075982374349495</v>
       </c>
       <c r="E4">
-        <v>0.05472424778974633</v>
+        <v>-0.02211753474459822</v>
       </c>
       <c r="F4">
-        <v>-0.0403580102508807</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.05651563713367035</v>
+      </c>
+      <c r="G4">
+        <v>0.06011749263759815</v>
+      </c>
+      <c r="H4">
+        <v>-0.02519178423159392</v>
+      </c>
+      <c r="I4">
+        <v>-0.04261287130230117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.005193735522830898</v>
+        <v>-0.02850545392375496</v>
       </c>
       <c r="C6">
-        <v>0.0008050883154829805</v>
+        <v>0.005469372881714373</v>
       </c>
       <c r="D6">
-        <v>0.0004654451421753196</v>
+        <v>-0.02101643372750701</v>
       </c>
       <c r="E6">
-        <v>-0.006971802077539733</v>
+        <v>-0.007735595908233426</v>
       </c>
       <c r="F6">
-        <v>-0.005827995296427144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.01995315010707261</v>
+      </c>
+      <c r="G6">
+        <v>0.01649870457547128</v>
+      </c>
+      <c r="H6">
+        <v>0.03189545738288325</v>
+      </c>
+      <c r="I6">
+        <v>0.0101482285508617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03215393343766145</v>
+        <v>-0.02959032467929256</v>
       </c>
       <c r="C7">
-        <v>0.01708568465508198</v>
+        <v>0.0008571670468076692</v>
       </c>
       <c r="D7">
-        <v>-0.04785693665747635</v>
+        <v>-0.008634695405316493</v>
       </c>
       <c r="E7">
-        <v>0.01288892271646827</v>
+        <v>-0.03794731324967318</v>
       </c>
       <c r="F7">
-        <v>-0.07158359154247931</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.03063382832377129</v>
+      </c>
+      <c r="G7">
+        <v>0.04397733719433276</v>
+      </c>
+      <c r="H7">
+        <v>-0.04897015015681937</v>
+      </c>
+      <c r="I7">
+        <v>-0.002055492786586316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.03768034175275042</v>
+        <v>-0.01254478413222055</v>
       </c>
       <c r="C8">
-        <v>-0.00467504948135903</v>
+        <v>-0.01203350430257333</v>
       </c>
       <c r="D8">
-        <v>-0.04913835819037635</v>
+        <v>-0.03996324420625962</v>
       </c>
       <c r="E8">
-        <v>0.0492675640944545</v>
+        <v>-0.01959442397463356</v>
       </c>
       <c r="F8">
-        <v>-0.06694362354674667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02294698226445788</v>
+      </c>
+      <c r="G8">
+        <v>0.06166289023730823</v>
+      </c>
+      <c r="H8">
+        <v>-0.05407993285789185</v>
+      </c>
+      <c r="I8">
+        <v>-0.032153544024888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.05628744719524894</v>
+        <v>-0.04887156533614859</v>
       </c>
       <c r="C9">
-        <v>0.02549222303614565</v>
+        <v>-0.003339038629651351</v>
       </c>
       <c r="D9">
-        <v>-0.04477691182899759</v>
+        <v>-0.03055309258669824</v>
       </c>
       <c r="E9">
-        <v>0.06221556334558517</v>
+        <v>-0.02201524389004821</v>
       </c>
       <c r="F9">
-        <v>-0.04136895836853973</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.04376235853605845</v>
+      </c>
+      <c r="G9">
+        <v>0.06993144168705931</v>
+      </c>
+      <c r="H9">
+        <v>-0.0264744797960218</v>
+      </c>
+      <c r="I9">
+        <v>-0.04442749250382946</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.03904356367282399</v>
+        <v>-0.06366537939034518</v>
       </c>
       <c r="C10">
-        <v>0.08585068585097994</v>
+        <v>0.009164038810325752</v>
       </c>
       <c r="D10">
-        <v>0.109686860510342</v>
+        <v>0.1541468186095901</v>
       </c>
       <c r="E10">
-        <v>-0.08567812671976688</v>
+        <v>0.04445253409235911</v>
       </c>
       <c r="F10">
-        <v>-0.05394807971216274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.0449283171682308</v>
+      </c>
+      <c r="G10">
+        <v>0.05021090875641245</v>
+      </c>
+      <c r="H10">
+        <v>-0.03095380011312266</v>
+      </c>
+      <c r="I10">
+        <v>-0.03943451469168637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.04832816516044823</v>
+        <v>-0.03957653062711355</v>
       </c>
       <c r="C11">
-        <v>0.001850513838000549</v>
+        <v>-0.01499621916446655</v>
       </c>
       <c r="D11">
-        <v>-0.03269752323530345</v>
+        <v>-0.03735886420941795</v>
       </c>
       <c r="E11">
-        <v>0.01262202466239888</v>
+        <v>-0.001932005503844392</v>
       </c>
       <c r="F11">
-        <v>-0.03972060095933502</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.01662060838034507</v>
+      </c>
+      <c r="G11">
+        <v>0.03301238417553716</v>
+      </c>
+      <c r="H11">
+        <v>-0.00218330816240581</v>
+      </c>
+      <c r="I11">
+        <v>-0.01747395471189587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04325931986635326</v>
+        <v>-0.03989522066768662</v>
       </c>
       <c r="C12">
-        <v>0.004011741965201343</v>
+        <v>-0.006159210176418338</v>
       </c>
       <c r="D12">
-        <v>-0.03066601083149786</v>
+        <v>-0.03397375747552389</v>
       </c>
       <c r="E12">
-        <v>0.03088460107653135</v>
+        <v>-0.01242923845252984</v>
       </c>
       <c r="F12">
-        <v>-0.02749086301850601</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.0218814887957166</v>
+      </c>
+      <c r="G12">
+        <v>0.01312062487067138</v>
+      </c>
+      <c r="H12">
+        <v>-0.004313614897040623</v>
+      </c>
+      <c r="I12">
+        <v>-0.006476749104865363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.04568194623957594</v>
+        <v>-0.03795017418971876</v>
       </c>
       <c r="C13">
-        <v>0.01497949120128286</v>
+        <v>0.007154646507890321</v>
       </c>
       <c r="D13">
-        <v>-0.05224562842227192</v>
+        <v>-0.02837329279870361</v>
       </c>
       <c r="E13">
-        <v>-0.01068355432665998</v>
+        <v>0.01142404348985031</v>
       </c>
       <c r="F13">
-        <v>-0.1065391540760068</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.01787817806490199</v>
+      </c>
+      <c r="G13">
+        <v>0.08452874170677688</v>
+      </c>
+      <c r="H13">
+        <v>-0.0370699039521771</v>
+      </c>
+      <c r="I13">
+        <v>-0.03334663954983041</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02255448048059727</v>
+        <v>-0.01973174912679882</v>
       </c>
       <c r="C14">
-        <v>0.01437083390971906</v>
+        <v>-0.002547684196109355</v>
       </c>
       <c r="D14">
-        <v>-0.0422903548339685</v>
+        <v>-0.01550573722261611</v>
       </c>
       <c r="E14">
-        <v>0.02353687127544679</v>
+        <v>-0.009607876279052529</v>
       </c>
       <c r="F14">
-        <v>-0.03472273335563758</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03201293101985855</v>
+      </c>
+      <c r="G14">
+        <v>0.03522039511152373</v>
+      </c>
+      <c r="H14">
+        <v>-0.06428839963573164</v>
+      </c>
+      <c r="I14">
+        <v>-0.01779673795846054</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.03854118352385238</v>
+        <v>-0.03406712634187069</v>
       </c>
       <c r="C16">
-        <v>0.002097579000798083</v>
+        <v>-0.01061899085492383</v>
       </c>
       <c r="D16">
-        <v>-0.02938666005522523</v>
+        <v>-0.03372143914457381</v>
       </c>
       <c r="E16">
-        <v>0.0143499963648683</v>
+        <v>-0.0065071218152143</v>
       </c>
       <c r="F16">
-        <v>-0.03037863369982922</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.01948665965586784</v>
+      </c>
+      <c r="G16">
+        <v>0.02858826437084848</v>
+      </c>
+      <c r="H16">
+        <v>-0.00565685609823514</v>
+      </c>
+      <c r="I16">
+        <v>-0.007392652278614336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.05899756764454341</v>
+        <v>-0.04454798110256478</v>
       </c>
       <c r="C19">
-        <v>-0.006456326889427545</v>
+        <v>-0.005040597906742954</v>
       </c>
       <c r="D19">
-        <v>-0.04614282235985242</v>
+        <v>-0.04197768448466446</v>
       </c>
       <c r="E19">
-        <v>0.01170022516123156</v>
+        <v>-0.003468177913011214</v>
       </c>
       <c r="F19">
-        <v>-0.08127165460497981</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.02241214364215689</v>
+      </c>
+      <c r="G19">
+        <v>0.08154804640349599</v>
+      </c>
+      <c r="H19">
+        <v>-0.04819971812763647</v>
+      </c>
+      <c r="I19">
+        <v>-0.02178469164630276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.01531192924459616</v>
+        <v>-0.01106133553276395</v>
       </c>
       <c r="C20">
-        <v>0.006177086171259043</v>
+        <v>0.00196953113291016</v>
       </c>
       <c r="D20">
-        <v>-0.04757888739678087</v>
+        <v>-0.02172286409248775</v>
       </c>
       <c r="E20">
-        <v>0.03533522126485554</v>
+        <v>-0.008522293780374543</v>
       </c>
       <c r="F20">
-        <v>-0.06201347570858875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.0218048520707288</v>
+      </c>
+      <c r="G20">
+        <v>0.05149608700418341</v>
+      </c>
+      <c r="H20">
+        <v>-0.0612194932519997</v>
+      </c>
+      <c r="I20">
+        <v>-0.01209787781870765</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01706484397476415</v>
+        <v>-0.02674844938583962</v>
       </c>
       <c r="C21">
-        <v>-0.009504509278820383</v>
+        <v>0.001379211412999154</v>
       </c>
       <c r="D21">
-        <v>-0.04099064822774601</v>
+        <v>-0.02324476643413882</v>
       </c>
       <c r="E21">
-        <v>0.01676133957763131</v>
+        <v>-0.01743473446968604</v>
       </c>
       <c r="F21">
-        <v>-0.0694193718200653</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.01443948850735197</v>
+      </c>
+      <c r="G21">
+        <v>0.05603096914457462</v>
+      </c>
+      <c r="H21">
+        <v>-0.02806447633814991</v>
+      </c>
+      <c r="I21">
+        <v>-0.05737965258131997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.03790341276367584</v>
+        <v>-0.03207680866614714</v>
       </c>
       <c r="C24">
-        <v>0.000805394389748423</v>
+        <v>-0.009217115920065968</v>
       </c>
       <c r="D24">
-        <v>-0.0277227983851697</v>
+        <v>-0.03095851703574824</v>
       </c>
       <c r="E24">
-        <v>0.01749569580879068</v>
+        <v>-0.006738746603734592</v>
       </c>
       <c r="F24">
-        <v>-0.04033504597875249</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.01659766537901524</v>
+      </c>
+      <c r="G24">
+        <v>0.03178658588646527</v>
+      </c>
+      <c r="H24">
+        <v>-0.002299900597918651</v>
+      </c>
+      <c r="I24">
+        <v>-0.01060612859832651</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.03968485101559491</v>
+        <v>-0.04072782209245934</v>
       </c>
       <c r="C25">
-        <v>0.003463283842019613</v>
+        <v>-0.004677139872574842</v>
       </c>
       <c r="D25">
-        <v>-0.03092083618472963</v>
+        <v>-0.03226299170494877</v>
       </c>
       <c r="E25">
-        <v>0.02273676989001614</v>
+        <v>-0.006683869265551772</v>
       </c>
       <c r="F25">
-        <v>-0.0452307068194476</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.02000435743463466</v>
+      </c>
+      <c r="G25">
+        <v>0.04206690877860289</v>
+      </c>
+      <c r="H25">
+        <v>0.001726082322992519</v>
+      </c>
+      <c r="I25">
+        <v>-0.01800433365794704</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.02068146738737506</v>
+        <v>-0.01644226366864515</v>
       </c>
       <c r="C26">
-        <v>-0.004788390207661321</v>
+        <v>0.01576120399900976</v>
       </c>
       <c r="D26">
-        <v>-0.05250377587326736</v>
+        <v>-0.02806376905692387</v>
       </c>
       <c r="E26">
-        <v>0.00290880345392681</v>
+        <v>-0.0008273789425510997</v>
       </c>
       <c r="F26">
-        <v>-0.04170905270000646</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.009179857698719552</v>
+      </c>
+      <c r="G26">
+        <v>0.04238257113575913</v>
+      </c>
+      <c r="H26">
+        <v>-0.03786041722212045</v>
+      </c>
+      <c r="I26">
+        <v>-0.01347117825475032</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1020684896444342</v>
+        <v>-0.05632387981492883</v>
       </c>
       <c r="C27">
-        <v>0.03443661186676076</v>
+        <v>-0.01759953556694446</v>
       </c>
       <c r="D27">
-        <v>-0.0398374008564294</v>
+        <v>-0.01656489586950019</v>
       </c>
       <c r="E27">
-        <v>0.04010546111285265</v>
+        <v>-0.004316354290212824</v>
       </c>
       <c r="F27">
-        <v>-0.04775089562425063</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.02699262171067066</v>
+      </c>
+      <c r="G27">
+        <v>0.04006923325348834</v>
+      </c>
+      <c r="H27">
+        <v>-0.03441659500320766</v>
+      </c>
+      <c r="I27">
+        <v>-0.01966294497608404</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.05776885931090059</v>
+        <v>-0.09517350818947103</v>
       </c>
       <c r="C28">
-        <v>0.1118601205333504</v>
+        <v>0.02602654721255298</v>
       </c>
       <c r="D28">
-        <v>0.1839784904626165</v>
+        <v>0.2343857431702776</v>
       </c>
       <c r="E28">
-        <v>-0.1232460169238308</v>
+        <v>0.05964536713651408</v>
       </c>
       <c r="F28">
-        <v>-0.02854245312708438</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.06845468060753497</v>
+      </c>
+      <c r="G28">
+        <v>0.02957418061513296</v>
+      </c>
+      <c r="H28">
+        <v>-0.049576367620896</v>
+      </c>
+      <c r="I28">
+        <v>-0.03042842018125885</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02578168934009998</v>
+        <v>-0.02205745942965078</v>
       </c>
       <c r="C29">
-        <v>0.009248113516281417</v>
+        <v>-0.002743463074636422</v>
       </c>
       <c r="D29">
-        <v>-0.04175519650269197</v>
+        <v>-0.01622894544268126</v>
       </c>
       <c r="E29">
-        <v>0.03343434572231948</v>
+        <v>-0.01116943654971813</v>
       </c>
       <c r="F29">
-        <v>-0.01857539673525092</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03325434257914819</v>
+      </c>
+      <c r="G29">
+        <v>0.03006649654168589</v>
+      </c>
+      <c r="H29">
+        <v>-0.06155597686159841</v>
+      </c>
+      <c r="I29">
+        <v>-0.01919077177866384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.09429197532683718</v>
+        <v>-0.07902598113785983</v>
       </c>
       <c r="C30">
-        <v>0.04654298270018325</v>
+        <v>0.007108026529671808</v>
       </c>
       <c r="D30">
-        <v>-0.07170426261954813</v>
+        <v>-0.0649775774936988</v>
       </c>
       <c r="E30">
-        <v>0.02399115515804668</v>
+        <v>0.02902297596926582</v>
       </c>
       <c r="F30">
-        <v>-0.1021869987714928</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.06028130926968406</v>
+      </c>
+      <c r="G30">
+        <v>0.09375728859651303</v>
+      </c>
+      <c r="H30">
+        <v>-0.01514932879576529</v>
+      </c>
+      <c r="I30">
+        <v>-0.001619212485898443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.0568862177514088</v>
+        <v>-0.05379285513860287</v>
       </c>
       <c r="C31">
-        <v>0.01559644601784172</v>
+        <v>-0.01556729106288634</v>
       </c>
       <c r="D31">
-        <v>-0.0342809940429488</v>
+        <v>-0.01562610803432059</v>
       </c>
       <c r="E31">
-        <v>-0.02491426081150537</v>
+        <v>0.006038057597350396</v>
       </c>
       <c r="F31">
-        <v>0.01703237059283381</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01642557178169157</v>
+      </c>
+      <c r="G31">
+        <v>-0.002163025783220907</v>
+      </c>
+      <c r="H31">
+        <v>-0.0563485087251104</v>
+      </c>
+      <c r="I31">
+        <v>-0.04482038925978004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.05100730149407814</v>
+        <v>-0.02639659973622728</v>
       </c>
       <c r="C32">
-        <v>0.01136585353830301</v>
+        <v>-0.02551724647110376</v>
       </c>
       <c r="D32">
-        <v>-0.05660304285022094</v>
+        <v>-0.02953270744578467</v>
       </c>
       <c r="E32">
-        <v>0.04197866652018311</v>
+        <v>-0.01950937369510795</v>
       </c>
       <c r="F32">
-        <v>-0.06870133922065544</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.04919242830571106</v>
+      </c>
+      <c r="G32">
+        <v>0.07803092543005959</v>
+      </c>
+      <c r="H32">
+        <v>-0.005354568076716389</v>
+      </c>
+      <c r="I32">
+        <v>-0.007517509033399661</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.05123770734547155</v>
+        <v>-0.04362722334828222</v>
       </c>
       <c r="C33">
-        <v>-0.005786197770409429</v>
+        <v>-0.009581886613067416</v>
       </c>
       <c r="D33">
-        <v>-0.07731912881257146</v>
+        <v>-0.05301616579482414</v>
       </c>
       <c r="E33">
-        <v>0.0193488376083633</v>
+        <v>0.01032078318678016</v>
       </c>
       <c r="F33">
-        <v>-0.06723674418597737</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.0143177862673332</v>
+      </c>
+      <c r="G33">
+        <v>0.0662593513121701</v>
+      </c>
+      <c r="H33">
+        <v>-0.04789034945064016</v>
+      </c>
+      <c r="I33">
+        <v>-0.0361215033068097</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.04023280657799148</v>
+        <v>-0.03492207718577379</v>
       </c>
       <c r="C34">
-        <v>0.008763111529633447</v>
+        <v>-0.0175260189873934</v>
       </c>
       <c r="D34">
-        <v>-0.03413059334629126</v>
+        <v>-0.03120608874051</v>
       </c>
       <c r="E34">
-        <v>0.02095338155536025</v>
+        <v>-0.01125526051212866</v>
       </c>
       <c r="F34">
-        <v>-0.0370454694805072</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.02586345272930911</v>
+      </c>
+      <c r="G34">
+        <v>0.03558232559323932</v>
+      </c>
+      <c r="H34">
+        <v>-0.004007589667382514</v>
+      </c>
+      <c r="I34">
+        <v>-0.01409882434922982</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01601982223742774</v>
+        <v>-0.01882334514332046</v>
       </c>
       <c r="C36">
-        <v>0.01366232705581928</v>
+        <v>0.005166978211830414</v>
       </c>
       <c r="D36">
-        <v>-0.01160009440100831</v>
+        <v>-0.001462235456210895</v>
       </c>
       <c r="E36">
-        <v>0.01069505136565196</v>
+        <v>-0.003457952440465448</v>
       </c>
       <c r="F36">
-        <v>-0.02412731265134309</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.0142433352881779</v>
+      </c>
+      <c r="G36">
+        <v>0.02457762476794978</v>
+      </c>
+      <c r="H36">
+        <v>-0.03476345937116639</v>
+      </c>
+      <c r="I36">
+        <v>-0.02401716327041386</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.0163657523930807</v>
+        <v>-0.02001406399520566</v>
       </c>
       <c r="C38">
-        <v>0.006127625576768654</v>
+        <v>-0.01344109103033146</v>
       </c>
       <c r="D38">
-        <v>0.008568694951456086</v>
+        <v>-0.001972514751476165</v>
       </c>
       <c r="E38">
-        <v>0.007307685304941832</v>
+        <v>-0.004878535097133381</v>
       </c>
       <c r="F38">
-        <v>-0.0107250253802794</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.00239014085106496</v>
+      </c>
+      <c r="G38">
+        <v>0.0388527611559826</v>
+      </c>
+      <c r="H38">
+        <v>-0.02683551544964711</v>
+      </c>
+      <c r="I38">
+        <v>-0.03405925744211788</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.05400157675068339</v>
+        <v>-0.04026108862369037</v>
       </c>
       <c r="C39">
-        <v>0.007335353377069195</v>
+        <v>-0.01150175445359761</v>
       </c>
       <c r="D39">
-        <v>-0.05065360313881966</v>
+        <v>-0.05382270764230389</v>
       </c>
       <c r="E39">
-        <v>0.01020855384677184</v>
+        <v>-0.005040192257338478</v>
       </c>
       <c r="F39">
-        <v>-0.02800928294088689</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.03252424403628977</v>
+      </c>
+      <c r="G39">
+        <v>0.0516403248801932</v>
+      </c>
+      <c r="H39">
+        <v>0.004990624259921074</v>
+      </c>
+      <c r="I39">
+        <v>-0.02582678847355017</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.05322128309722676</v>
+        <v>-0.043344694604147</v>
       </c>
       <c r="C40">
-        <v>0.02765350049043546</v>
+        <v>-0.01134458618458776</v>
       </c>
       <c r="D40">
-        <v>-0.07888863564585033</v>
+        <v>-0.0432976708417985</v>
       </c>
       <c r="E40">
-        <v>-0.006679697209096136</v>
+        <v>0.01574819292893897</v>
       </c>
       <c r="F40">
-        <v>-0.08030458974933412</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.03593657860473849</v>
+      </c>
+      <c r="G40">
+        <v>0.073014106627474</v>
+      </c>
+      <c r="H40">
+        <v>-0.0368129921557801</v>
+      </c>
+      <c r="I40">
+        <v>-0.03262507606529144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.01104672626888649</v>
+        <v>-0.0007175236913434398</v>
       </c>
       <c r="C41">
-        <v>-0.004317670734463336</v>
+        <v>0.0001075100795936644</v>
       </c>
       <c r="D41">
-        <v>-0.02614154892509289</v>
+        <v>-0.002360106519770818</v>
       </c>
       <c r="E41">
-        <v>0.01794641488796662</v>
+        <v>-0.001082549511084172</v>
       </c>
       <c r="F41">
-        <v>0.02040004938377499</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.006267771179553508</v>
+      </c>
+      <c r="G41">
+        <v>0.0002038374375566947</v>
+      </c>
+      <c r="H41">
+        <v>-0.05344813772798116</v>
+      </c>
+      <c r="I41">
+        <v>-0.03806956798945322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.3334193755321021</v>
+        <v>-0.2416583997494525</v>
       </c>
       <c r="C42">
-        <v>-0.8704301130630528</v>
+        <v>0.04951772641263064</v>
       </c>
       <c r="D42">
-        <v>0.1714653411157522</v>
+        <v>-0.3862802360888539</v>
       </c>
       <c r="E42">
-        <v>-0.2633458846372728</v>
+        <v>-0.04853855753052925</v>
       </c>
       <c r="F42">
-        <v>0.02878534919038651</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.8627159771637583</v>
+      </c>
+      <c r="G42">
+        <v>-0.1301847846479209</v>
+      </c>
+      <c r="H42">
+        <v>0.01171759364003871</v>
+      </c>
+      <c r="I42">
+        <v>0.006665796680782232</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.0100256466259607</v>
+        <v>-0.003110112424850459</v>
       </c>
       <c r="C43">
-        <v>-0.002678613838343655</v>
+        <v>0.006614962633332704</v>
       </c>
       <c r="D43">
-        <v>-0.02704297449845815</v>
+        <v>-0.005556031438051181</v>
       </c>
       <c r="E43">
-        <v>0.007431812626178026</v>
+        <v>0.00162727880049977</v>
       </c>
       <c r="F43">
-        <v>-0.02227282358810522</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.004686114947395502</v>
+      </c>
+      <c r="G43">
+        <v>0.01432080511057752</v>
+      </c>
+      <c r="H43">
+        <v>-0.04659808678616047</v>
+      </c>
+      <c r="I43">
+        <v>-0.0215240465009383</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.0273514239702458</v>
+        <v>-0.0165832963395068</v>
       </c>
       <c r="C44">
-        <v>-0.004287125632623024</v>
+        <v>-0.005701599139459519</v>
       </c>
       <c r="D44">
-        <v>-0.06343268473816693</v>
+        <v>-0.0319964798573033</v>
       </c>
       <c r="E44">
-        <v>0.02553561575034164</v>
+        <v>-0.01020872795319608</v>
       </c>
       <c r="F44">
-        <v>-0.1116521387676396</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.01217183139978903</v>
+      </c>
+      <c r="G44">
+        <v>0.1093526825587899</v>
+      </c>
+      <c r="H44">
+        <v>-0.09764288414187365</v>
+      </c>
+      <c r="I44">
+        <v>-0.04840905109775052</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02960502234365126</v>
+        <v>-0.02207285205917635</v>
       </c>
       <c r="C46">
-        <v>0.009297415877357072</v>
+        <v>-0.002472676007123255</v>
       </c>
       <c r="D46">
-        <v>-0.05477775462591652</v>
+        <v>-0.03131483999610148</v>
       </c>
       <c r="E46">
-        <v>0.02138767399956986</v>
+        <v>-0.001772454267409557</v>
       </c>
       <c r="F46">
-        <v>-0.01180526725271308</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.03869657376667078</v>
+      </c>
+      <c r="G46">
+        <v>0.04221574343274136</v>
+      </c>
+      <c r="H46">
+        <v>-0.06511698445689398</v>
+      </c>
+      <c r="I46">
+        <v>-0.01908723232827375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08473683927984539</v>
+        <v>-0.07965173180128277</v>
       </c>
       <c r="C47">
-        <v>0.02295439005270575</v>
+        <v>-0.02693107814131221</v>
       </c>
       <c r="D47">
-        <v>-0.03598382072997153</v>
+        <v>-0.02296206734674024</v>
       </c>
       <c r="E47">
-        <v>0.01640849093311756</v>
+        <v>0.0001519757390951332</v>
       </c>
       <c r="F47">
-        <v>0.02790280934503053</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.02864000744241956</v>
+      </c>
+      <c r="G47">
+        <v>-0.02631119988571892</v>
+      </c>
+      <c r="H47">
+        <v>-0.07003388968671735</v>
+      </c>
+      <c r="I47">
+        <v>-0.02809338313314637</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.01234053519038665</v>
+        <v>-0.0192671400314821</v>
       </c>
       <c r="C48">
-        <v>0.008035002702619655</v>
+        <v>-0.006102114160920371</v>
       </c>
       <c r="D48">
-        <v>-0.03260316497448747</v>
+        <v>-0.01078234849789867</v>
       </c>
       <c r="E48">
-        <v>0.01470057381669647</v>
+        <v>-0.002482675877116342</v>
       </c>
       <c r="F48">
-        <v>-0.03191574522743814</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01629414003541452</v>
+      </c>
+      <c r="G48">
+        <v>0.02651181644059046</v>
+      </c>
+      <c r="H48">
+        <v>-0.03096294158624368</v>
+      </c>
+      <c r="I48">
+        <v>-0.01694135678573924</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.08096786912014674</v>
+        <v>-0.07771776595976848</v>
       </c>
       <c r="C50">
-        <v>0.004246420770541672</v>
+        <v>-0.02679582210839393</v>
       </c>
       <c r="D50">
-        <v>-0.03679572849669958</v>
+        <v>-0.03543478242445804</v>
       </c>
       <c r="E50">
-        <v>-0.001888987461791094</v>
+        <v>-0.01625346221175576</v>
       </c>
       <c r="F50">
-        <v>0.01283618777500462</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.01800535919416788</v>
+      </c>
+      <c r="G50">
+        <v>-0.01031106647811578</v>
+      </c>
+      <c r="H50">
+        <v>-0.05112619929611704</v>
+      </c>
+      <c r="I50">
+        <v>0.002664558858733574</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.04596589949560181</v>
+        <v>-0.03056370774261841</v>
       </c>
       <c r="C51">
-        <v>-0.001314724185979294</v>
+        <v>0.00299583292452335</v>
       </c>
       <c r="D51">
-        <v>-0.02749826334600339</v>
+        <v>-0.001536125998133501</v>
       </c>
       <c r="E51">
-        <v>-0.03185357446532605</v>
+        <v>0.008996535545775987</v>
       </c>
       <c r="F51">
-        <v>-0.06391105030758026</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.008321986230671437</v>
+      </c>
+      <c r="G51">
+        <v>0.07968304221354759</v>
+      </c>
+      <c r="H51">
+        <v>-0.08579466612125115</v>
+      </c>
+      <c r="I51">
+        <v>-0.05622655993941208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1213365947920282</v>
+        <v>-0.1078144942188943</v>
       </c>
       <c r="C53">
-        <v>0.02353817975778022</v>
+        <v>-0.03605058674991442</v>
       </c>
       <c r="D53">
-        <v>-0.06793135964597306</v>
+        <v>-0.04880685372896303</v>
       </c>
       <c r="E53">
-        <v>0.01151409014918557</v>
+        <v>-0.002876909177980216</v>
       </c>
       <c r="F53">
-        <v>0.07249118821704614</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.05245989746940249</v>
+      </c>
+      <c r="G53">
+        <v>-0.05803634578744438</v>
+      </c>
+      <c r="H53">
+        <v>-0.02473152816216322</v>
+      </c>
+      <c r="I53">
+        <v>-0.01810864244853217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02229617848851338</v>
+        <v>-0.02461934295187565</v>
       </c>
       <c r="C54">
-        <v>0.02252907272876942</v>
+        <v>-0.01116160052520883</v>
       </c>
       <c r="D54">
-        <v>-0.02883655236192481</v>
+        <v>-0.0006727529534068201</v>
       </c>
       <c r="E54">
-        <v>0.02065730650352748</v>
+        <v>-0.003913364027400144</v>
       </c>
       <c r="F54">
-        <v>-0.02854302380416701</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.03160046486207356</v>
+      </c>
+      <c r="G54">
+        <v>0.02754224186831351</v>
+      </c>
+      <c r="H54">
+        <v>-0.06141016773690422</v>
+      </c>
+      <c r="I54">
+        <v>-0.02849873188718673</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1064667308146241</v>
+        <v>-0.09212875830958478</v>
       </c>
       <c r="C55">
-        <v>0.02304373922651164</v>
+        <v>-0.03679605649106327</v>
       </c>
       <c r="D55">
-        <v>-0.02263310278569379</v>
+        <v>-0.03996308072305077</v>
       </c>
       <c r="E55">
-        <v>0.04556121812118869</v>
+        <v>-0.01753710967403749</v>
       </c>
       <c r="F55">
-        <v>0.04885851461027892</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.04248658776344837</v>
+      </c>
+      <c r="G55">
+        <v>-0.05243466730445565</v>
+      </c>
+      <c r="H55">
+        <v>-0.02901482043004491</v>
+      </c>
+      <c r="I55">
+        <v>0.01542237422168446</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1412259598623174</v>
+        <v>-0.1401513634550006</v>
       </c>
       <c r="C56">
-        <v>0.0625138307941991</v>
+        <v>-0.05356985831628577</v>
       </c>
       <c r="D56">
-        <v>-0.0468368978247977</v>
+        <v>-0.0382230110949758</v>
       </c>
       <c r="E56">
-        <v>0.0413691369389497</v>
+        <v>-0.005457139205756892</v>
       </c>
       <c r="F56">
-        <v>0.1140470181608781</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.07762588588813409</v>
+      </c>
+      <c r="G56">
+        <v>-0.1027121237288493</v>
+      </c>
+      <c r="H56">
+        <v>0.01010540806787346</v>
+      </c>
+      <c r="I56">
+        <v>0.01962313901755695</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.0645851566032551</v>
+        <v>-0.05668529238061208</v>
       </c>
       <c r="C57">
-        <v>0.01527059729109411</v>
+        <v>0.00591104413172475</v>
       </c>
       <c r="D57">
-        <v>-0.05014403222641339</v>
+        <v>-0.03333513139830099</v>
       </c>
       <c r="E57">
-        <v>-0.009261286592826665</v>
+        <v>0.01107896122796496</v>
       </c>
       <c r="F57">
-        <v>-0.06503319935876588</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.0103484364787405</v>
+      </c>
+      <c r="G57">
+        <v>0.05848013970577233</v>
+      </c>
+      <c r="H57">
+        <v>-0.03013451916174198</v>
+      </c>
+      <c r="I57">
+        <v>-0.02365198923093771</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.2133853807602475</v>
+        <v>-0.184800753866868</v>
       </c>
       <c r="C58">
-        <v>0.02240613461439087</v>
+        <v>-0.06206908569371611</v>
       </c>
       <c r="D58">
-        <v>-0.142091165743139</v>
+        <v>-0.1363790277817518</v>
       </c>
       <c r="E58">
-        <v>0.0153331250504152</v>
+        <v>0.07365398718998889</v>
       </c>
       <c r="F58">
-        <v>-0.2750786322141547</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.01004662926151992</v>
+      </c>
+      <c r="G58">
+        <v>0.3921851183492561</v>
+      </c>
+      <c r="H58">
+        <v>-0.3694885499049626</v>
+      </c>
+      <c r="I58">
+        <v>0.3565327188454153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.05503565867799652</v>
+        <v>-0.09701054332626281</v>
       </c>
       <c r="C59">
-        <v>0.1237549410228906</v>
+        <v>0.02650331900661944</v>
       </c>
       <c r="D59">
-        <v>0.1278038226044543</v>
+        <v>0.1981978099391326</v>
       </c>
       <c r="E59">
-        <v>-0.07619443946197263</v>
+        <v>0.06692136920335497</v>
       </c>
       <c r="F59">
-        <v>-0.02730629708679998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.02671631548648071</v>
+      </c>
+      <c r="G59">
+        <v>0.04800519315037951</v>
+      </c>
+      <c r="H59">
+        <v>-0.02330920334683046</v>
+      </c>
+      <c r="I59">
+        <v>-0.02329008719203103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1763535251754505</v>
+        <v>-0.1938862112033322</v>
       </c>
       <c r="C60">
-        <v>0.07673901848562581</v>
+        <v>-0.02031672908553735</v>
       </c>
       <c r="D60">
-        <v>-0.01838307160526619</v>
+        <v>0.007433417797899521</v>
       </c>
       <c r="E60">
-        <v>-0.07442793070301956</v>
+        <v>0.06563772732734423</v>
       </c>
       <c r="F60">
-        <v>-0.1409377656913953</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.03316535380097582</v>
+      </c>
+      <c r="G60">
+        <v>0.2044920910939975</v>
+      </c>
+      <c r="H60">
+        <v>0.3594246109603723</v>
+      </c>
+      <c r="I60">
+        <v>-0.04937657929885504</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03235400209958533</v>
+        <v>-0.03364086848532733</v>
       </c>
       <c r="C61">
-        <v>0.005940529147242575</v>
+        <v>-0.01444153423019085</v>
       </c>
       <c r="D61">
-        <v>-0.02151692300423646</v>
+        <v>-0.03332781536365981</v>
       </c>
       <c r="E61">
-        <v>0.01863987034527504</v>
+        <v>-0.00735505311324719</v>
       </c>
       <c r="F61">
-        <v>-0.02807513736312937</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.0254209344526714</v>
+      </c>
+      <c r="G61">
+        <v>0.03444467264813379</v>
+      </c>
+      <c r="H61">
+        <v>0.01432789202375385</v>
+      </c>
+      <c r="I61">
+        <v>-0.0178373891927189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.03007281328327867</v>
+        <v>-0.02532050967692395</v>
       </c>
       <c r="C63">
-        <v>0.0171101651998652</v>
+        <v>-0.004220905660186171</v>
       </c>
       <c r="D63">
-        <v>-0.04499494326743467</v>
+        <v>-0.02424232191801208</v>
       </c>
       <c r="E63">
-        <v>0.01866139235149847</v>
+        <v>-0.003281805148679111</v>
       </c>
       <c r="F63">
-        <v>-0.03850439052253059</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.0248070163599219</v>
+      </c>
+      <c r="G63">
+        <v>0.02398993406322129</v>
+      </c>
+      <c r="H63">
+        <v>-0.04913215911584799</v>
+      </c>
+      <c r="I63">
+        <v>-0.001732477159740504</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.04891009076815152</v>
+        <v>-0.04857322910664514</v>
       </c>
       <c r="C64">
-        <v>0.007012831742794334</v>
+        <v>-0.01470753240147354</v>
       </c>
       <c r="D64">
-        <v>-0.04978965901478933</v>
+        <v>-0.03901999835656275</v>
       </c>
       <c r="E64">
-        <v>0.06011808196186259</v>
+        <v>-0.01727237213475128</v>
       </c>
       <c r="F64">
-        <v>-0.03636644675495619</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.0321450956198452</v>
+      </c>
+      <c r="G64">
+        <v>0.0357565994099362</v>
+      </c>
+      <c r="H64">
+        <v>-0.03413288604778311</v>
+      </c>
+      <c r="I64">
+        <v>-0.06098565749062357</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.005442965421297807</v>
+        <v>-0.03234992410539105</v>
       </c>
       <c r="C65">
-        <v>-7.385536733182029e-05</v>
+        <v>0.00652821596841181</v>
       </c>
       <c r="D65">
-        <v>0.001189758607284234</v>
+        <v>-0.02166150434993214</v>
       </c>
       <c r="E65">
-        <v>-0.007304405108276735</v>
+        <v>-0.007849846493777589</v>
       </c>
       <c r="F65">
-        <v>-0.005891702228026608</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.02048872222189168</v>
+      </c>
+      <c r="G65">
+        <v>0.01368339758515312</v>
+      </c>
+      <c r="H65">
+        <v>0.03654053068118452</v>
+      </c>
+      <c r="I65">
+        <v>0.007132948407124838</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.05208052606415731</v>
+        <v>-0.04809374238717843</v>
       </c>
       <c r="C66">
-        <v>0.0212469948783072</v>
+        <v>-0.01748609835572785</v>
       </c>
       <c r="D66">
-        <v>-0.06436791225967958</v>
+        <v>-0.06120713797293575</v>
       </c>
       <c r="E66">
-        <v>0.03091813440547241</v>
+        <v>0.001112757060102807</v>
       </c>
       <c r="F66">
-        <v>-0.07436215449682343</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.05906088836826143</v>
+      </c>
+      <c r="G66">
+        <v>0.06492221190001458</v>
+      </c>
+      <c r="H66">
+        <v>0.01726168871061206</v>
+      </c>
+      <c r="I66">
+        <v>-0.01345807090514842</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.0346108035820883</v>
+        <v>-0.03996836039772722</v>
       </c>
       <c r="C67">
-        <v>0.01664854195058822</v>
+        <v>-0.009769883457553957</v>
       </c>
       <c r="D67">
-        <v>0.01849728124450314</v>
+        <v>0.005970006194636792</v>
       </c>
       <c r="E67">
-        <v>-0.005868872166219677</v>
+        <v>0.001543424703573729</v>
       </c>
       <c r="F67">
-        <v>-0.01579542957948588</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.005729867380739286</v>
+      </c>
+      <c r="G67">
+        <v>0.03279124082027986</v>
+      </c>
+      <c r="H67">
+        <v>-0.005406434616078924</v>
+      </c>
+      <c r="I67">
+        <v>-0.04956717386282532</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.07054373617729967</v>
+        <v>-0.1022586916815641</v>
       </c>
       <c r="C68">
-        <v>0.1171886636314451</v>
+        <v>0.04892324947494398</v>
       </c>
       <c r="D68">
-        <v>0.1843216926758828</v>
+        <v>0.2166594598901073</v>
       </c>
       <c r="E68">
-        <v>-0.1138694053648737</v>
+        <v>0.06536805082453592</v>
       </c>
       <c r="F68">
-        <v>0.0051935019299469</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.05581531694802924</v>
+      </c>
+      <c r="G68">
+        <v>0.006485501594665348</v>
+      </c>
+      <c r="H68">
+        <v>-0.04211660681911324</v>
+      </c>
+      <c r="I68">
+        <v>0.0179579148071482</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.0710855746491439</v>
+        <v>-0.06673813665394088</v>
       </c>
       <c r="C69">
-        <v>0.02721327297142477</v>
+        <v>-0.02486172069599335</v>
       </c>
       <c r="D69">
-        <v>-0.02277538302466142</v>
+        <v>-0.01836975732713763</v>
       </c>
       <c r="E69">
-        <v>-0.002174741386061703</v>
+        <v>0.004140216340291021</v>
       </c>
       <c r="F69">
-        <v>0.01187797059995357</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.02781971596137406</v>
+      </c>
+      <c r="G69">
+        <v>-0.01124024778602737</v>
+      </c>
+      <c r="H69">
+        <v>-0.04466507403236917</v>
+      </c>
+      <c r="I69">
+        <v>-0.0279434459342392</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.06690981612843178</v>
+        <v>-0.09833934636039249</v>
       </c>
       <c r="C71">
-        <v>0.1434083897724786</v>
+        <v>0.03929155895335912</v>
       </c>
       <c r="D71">
-        <v>0.2292044109047114</v>
+        <v>0.2379005961408628</v>
       </c>
       <c r="E71">
-        <v>-0.189968782194403</v>
+        <v>0.07609732639151667</v>
       </c>
       <c r="F71">
-        <v>-0.03712457464667961</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.08009495856597497</v>
+      </c>
+      <c r="G71">
+        <v>0.03420989158857244</v>
+      </c>
+      <c r="H71">
+        <v>-0.02430151900454741</v>
+      </c>
+      <c r="I71">
+        <v>-0.01414733357355408</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1181867415823687</v>
+        <v>-0.1265706813589135</v>
       </c>
       <c r="C72">
-        <v>0.07875963586044105</v>
+        <v>-0.04680050801540683</v>
       </c>
       <c r="D72">
-        <v>-0.05504047044949354</v>
+        <v>-0.05652030621219097</v>
       </c>
       <c r="E72">
-        <v>0.0317410743888261</v>
+        <v>0.005001546723287935</v>
       </c>
       <c r="F72">
-        <v>-0.02985540878124131</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.1062747908006192</v>
+      </c>
+      <c r="G72">
+        <v>0.08854876099231443</v>
+      </c>
+      <c r="H72">
+        <v>0.08311977907061567</v>
+      </c>
+      <c r="I72">
+        <v>-0.02977459241690282</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2683375400545026</v>
+        <v>-0.271725638722612</v>
       </c>
       <c r="C73">
-        <v>0.1196460463356588</v>
+        <v>-0.02604691029075519</v>
       </c>
       <c r="D73">
-        <v>0.02427062502475828</v>
+        <v>-0.007332290675012113</v>
       </c>
       <c r="E73">
-        <v>-0.1129825079073607</v>
+        <v>0.09756635111419938</v>
       </c>
       <c r="F73">
-        <v>-0.2684964473222746</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.008727749811737014</v>
+      </c>
+      <c r="G73">
+        <v>0.2994959458962431</v>
+      </c>
+      <c r="H73">
+        <v>0.5259894508318436</v>
+      </c>
+      <c r="I73">
+        <v>-0.01749252642814436</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.140164975939134</v>
+        <v>-0.1337822073891813</v>
       </c>
       <c r="C74">
-        <v>0.02713104779476641</v>
+        <v>-0.04723147072752688</v>
       </c>
       <c r="D74">
-        <v>-0.04185576865479602</v>
+        <v>-0.05139415367114548</v>
       </c>
       <c r="E74">
-        <v>0.01930393154560677</v>
+        <v>-0.000601833526052895</v>
       </c>
       <c r="F74">
-        <v>0.06435989108202149</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.05785181365038079</v>
+      </c>
+      <c r="G74">
+        <v>-0.0830123137344448</v>
+      </c>
+      <c r="H74">
+        <v>0.0185770115015877</v>
+      </c>
+      <c r="I74">
+        <v>0.004017048666971761</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2208959000158857</v>
+        <v>-0.2325729723868427</v>
       </c>
       <c r="C75">
-        <v>0.08995391780205651</v>
+        <v>-0.0809182047170366</v>
       </c>
       <c r="D75">
-        <v>-0.08774828688550762</v>
+        <v>-0.05510982946967004</v>
       </c>
       <c r="E75">
-        <v>0.01523133065011138</v>
+        <v>0.02292405750316708</v>
       </c>
       <c r="F75">
-        <v>0.1582277897299104</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1240878777355529</v>
+      </c>
+      <c r="G75">
+        <v>-0.1544932750008836</v>
+      </c>
+      <c r="H75">
+        <v>-0.01851971582459457</v>
+      </c>
+      <c r="I75">
+        <v>-0.00121467572335111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2459849637234035</v>
+        <v>-0.2372840871071585</v>
       </c>
       <c r="C76">
-        <v>0.1040168319868224</v>
+        <v>-0.09311756920129283</v>
       </c>
       <c r="D76">
-        <v>-0.03879515033489903</v>
+        <v>-0.04233257915231143</v>
       </c>
       <c r="E76">
-        <v>0.07384981085750478</v>
+        <v>-0.01860232434850103</v>
       </c>
       <c r="F76">
-        <v>0.1473099318959419</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1381573593392715</v>
+      </c>
+      <c r="G76">
+        <v>-0.2002120425007718</v>
+      </c>
+      <c r="H76">
+        <v>-0.004979956893160651</v>
+      </c>
+      <c r="I76">
+        <v>0.07196157608578352</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.147998638942224</v>
+        <v>-0.09937272760730696</v>
       </c>
       <c r="C77">
-        <v>-0.03018543051370177</v>
+        <v>-0.02138529374081391</v>
       </c>
       <c r="D77">
-        <v>-0.07611324281862114</v>
+        <v>-0.08456735755876514</v>
       </c>
       <c r="E77">
-        <v>0.005445663533133702</v>
+        <v>-0.006505173633517161</v>
       </c>
       <c r="F77">
-        <v>-0.2297238118183717</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.03003003747460576</v>
+      </c>
+      <c r="G77">
+        <v>0.1564769892570405</v>
+      </c>
+      <c r="H77">
+        <v>-0.221393025480444</v>
+      </c>
+      <c r="I77">
+        <v>0.07100949114129441</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.07993550128907052</v>
+        <v>-0.05571773327076634</v>
       </c>
       <c r="C78">
-        <v>-0.01852201634593745</v>
+        <v>-0.01713107201877238</v>
       </c>
       <c r="D78">
-        <v>-0.08059433322702841</v>
+        <v>-0.06573616602305996</v>
       </c>
       <c r="E78">
-        <v>0.04840244496637051</v>
+        <v>-0.01532882306452406</v>
       </c>
       <c r="F78">
-        <v>-0.04529274580342608</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.03512911487006729</v>
+      </c>
+      <c r="G78">
+        <v>0.06811348271947162</v>
+      </c>
+      <c r="H78">
+        <v>-0.03097547508546772</v>
+      </c>
+      <c r="I78">
+        <v>-0.01918354985213543</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.1429089590374728</v>
+        <v>-0.1634074675646149</v>
       </c>
       <c r="C80">
-        <v>-0.09615994414028532</v>
+        <v>-0.03532939247230633</v>
       </c>
       <c r="D80">
-        <v>0.52884752182315</v>
+        <v>0.2360077243084749</v>
       </c>
       <c r="E80">
-        <v>0.8056442068266277</v>
+        <v>-0.9427743444004503</v>
       </c>
       <c r="F80">
-        <v>-0.07513520439837711</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.02918982271847451</v>
+      </c>
+      <c r="G80">
+        <v>0.07276119395071459</v>
+      </c>
+      <c r="H80">
+        <v>0.02909016759842478</v>
+      </c>
+      <c r="I80">
+        <v>-0.03867873359056265</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1696948883261784</v>
+        <v>-0.1754274368702394</v>
       </c>
       <c r="C81">
-        <v>0.06875531609677482</v>
+        <v>-0.06127842464293518</v>
       </c>
       <c r="D81">
-        <v>-0.04566924065809967</v>
+        <v>-0.03716282738663378</v>
       </c>
       <c r="E81">
-        <v>0.02148298578857745</v>
+        <v>0.002975692865976661</v>
       </c>
       <c r="F81">
-        <v>0.1522110411083859</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.09763629461737253</v>
+      </c>
+      <c r="G81">
+        <v>-0.1425857360629234</v>
+      </c>
+      <c r="H81">
+        <v>-0.01689471830607035</v>
+      </c>
+      <c r="I81">
+        <v>0.04546590748016512</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.06263842689029955</v>
+        <v>-0.04840573330454452</v>
       </c>
       <c r="C83">
-        <v>-0.0421573542582805</v>
+        <v>-0.01391998990145171</v>
       </c>
       <c r="D83">
-        <v>-0.06612754208076502</v>
+        <v>-0.04742053065309272</v>
       </c>
       <c r="E83">
-        <v>0.007275695166803502</v>
+        <v>0.002007516355935166</v>
       </c>
       <c r="F83">
-        <v>-0.04019716990010347</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.009921331512301424</v>
+      </c>
+      <c r="G83">
+        <v>0.05332867767206152</v>
+      </c>
+      <c r="H83">
+        <v>-0.02958559017301504</v>
+      </c>
+      <c r="I83">
+        <v>-0.02471365391831369</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2219745753828239</v>
+        <v>-0.2264271792160915</v>
       </c>
       <c r="C85">
-        <v>0.04937123870627651</v>
+        <v>-0.07729973598254437</v>
       </c>
       <c r="D85">
-        <v>-0.07322945407871635</v>
+        <v>-0.08575820739958379</v>
       </c>
       <c r="E85">
-        <v>0.0608352637530684</v>
+        <v>0.0003545940096794806</v>
       </c>
       <c r="F85">
-        <v>0.1951659551246653</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.118267152273287</v>
+      </c>
+      <c r="G85">
+        <v>-0.194828673939297</v>
+      </c>
+      <c r="H85">
+        <v>-0.01461437333197465</v>
+      </c>
+      <c r="I85">
+        <v>0.02986135787963978</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.02048047029389645</v>
+        <v>-0.01587353197102359</v>
       </c>
       <c r="C86">
-        <v>-0.008941557019091278</v>
+        <v>-0.01062842431789839</v>
       </c>
       <c r="D86">
-        <v>-0.06611002860059682</v>
+        <v>-0.04106636009447739</v>
       </c>
       <c r="E86">
-        <v>0.02456065410841511</v>
+        <v>-0.006437593938775312</v>
       </c>
       <c r="F86">
-        <v>-0.07633587397330859</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.01773475777856526</v>
+      </c>
+      <c r="G86">
+        <v>0.0788117742102396</v>
+      </c>
+      <c r="H86">
+        <v>-0.06198007601449593</v>
+      </c>
+      <c r="I86">
+        <v>-0.01145188339761036</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01471512698134919</v>
+        <v>-0.02473688548192338</v>
       </c>
       <c r="C87">
-        <v>0.03572430613518651</v>
+        <v>0.001293232889188954</v>
       </c>
       <c r="D87">
-        <v>0.04121349185186111</v>
+        <v>0.008579262076886451</v>
       </c>
       <c r="E87">
-        <v>-0.03141261397628233</v>
+        <v>0.0005424910669400532</v>
       </c>
       <c r="F87">
-        <v>-0.1082266041999374</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.005314522042165483</v>
+      </c>
+      <c r="G87">
+        <v>0.1051862128485258</v>
+      </c>
+      <c r="H87">
+        <v>-0.003578520631534607</v>
+      </c>
+      <c r="I87">
+        <v>0.01416122663969508</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.01236303218061499</v>
+        <v>-0.03216309595605651</v>
       </c>
       <c r="C88">
-        <v>0.01113513199155809</v>
+        <v>-0.006556470975811522</v>
       </c>
       <c r="D88">
-        <v>0.00500595607484389</v>
+        <v>0.007044243710919141</v>
       </c>
       <c r="E88">
-        <v>0.0176031381580558</v>
+        <v>-0.001935854870494633</v>
       </c>
       <c r="F88">
-        <v>0.007043675654389822</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01238149432754481</v>
+      </c>
+      <c r="G88">
+        <v>-0.007555737609720527</v>
+      </c>
+      <c r="H88">
+        <v>-0.01899629706174853</v>
+      </c>
+      <c r="I88">
+        <v>-0.06162922700792768</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.1040818188874575</v>
+        <v>-0.1654813188955523</v>
       </c>
       <c r="C89">
-        <v>0.1396084078056502</v>
+        <v>0.06815514280088676</v>
       </c>
       <c r="D89">
-        <v>0.2533629935565964</v>
+        <v>0.3451317846122337</v>
       </c>
       <c r="E89">
-        <v>-0.2044910465491111</v>
+        <v>0.1318543586955517</v>
       </c>
       <c r="F89">
-        <v>-0.01625674270147461</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.1033071325232596</v>
+      </c>
+      <c r="G89">
+        <v>0.01439937678716773</v>
+      </c>
+      <c r="H89">
+        <v>-0.102598450324656</v>
+      </c>
+      <c r="I89">
+        <v>0.003762322363872584</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.08347353495899988</v>
+        <v>-0.115241143204538</v>
       </c>
       <c r="C90">
-        <v>0.1364859353301039</v>
+        <v>0.0550965263460574</v>
       </c>
       <c r="D90">
-        <v>0.2567548831332151</v>
+        <v>0.2939759060925526</v>
       </c>
       <c r="E90">
-        <v>-0.1368072465154475</v>
+        <v>0.09136238185310797</v>
       </c>
       <c r="F90">
-        <v>-0.01713553214818938</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.09151728296395167</v>
+      </c>
+      <c r="G90">
+        <v>-0.01802815677912026</v>
+      </c>
+      <c r="H90">
+        <v>-0.0684430045856954</v>
+      </c>
+      <c r="I90">
+        <v>0.004883250081607881</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2808058384890591</v>
+        <v>-0.2655581831440755</v>
       </c>
       <c r="C91">
-        <v>0.05508383716058302</v>
+        <v>-0.09526106231972252</v>
       </c>
       <c r="D91">
-        <v>-0.1011369059841276</v>
+        <v>-0.09870141878870736</v>
       </c>
       <c r="E91">
-        <v>0.06384451297907021</v>
+        <v>0.003702233829330785</v>
       </c>
       <c r="F91">
-        <v>0.2322219930056222</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.1157451873092346</v>
+      </c>
+      <c r="G91">
+        <v>-0.2512160713914977</v>
+      </c>
+      <c r="H91">
+        <v>-0.03539892379239851</v>
+      </c>
+      <c r="I91">
+        <v>0.072017114371714</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.1344929542692334</v>
+        <v>-0.1990836254348522</v>
       </c>
       <c r="C92">
-        <v>0.1115132091286721</v>
+        <v>-0.004154507520593907</v>
       </c>
       <c r="D92">
-        <v>0.279191742843401</v>
+        <v>0.3111572703191111</v>
       </c>
       <c r="E92">
-        <v>-0.140241864643435</v>
+        <v>0.08342924119686849</v>
       </c>
       <c r="F92">
-        <v>0.02622443631404725</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.09759374146208845</v>
+      </c>
+      <c r="G92">
+        <v>-0.08651591628775755</v>
+      </c>
+      <c r="H92">
+        <v>-0.1787211714694632</v>
+      </c>
+      <c r="I92">
+        <v>-0.004290368647309604</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.09100805163380811</v>
+        <v>-0.1459436949321638</v>
       </c>
       <c r="C93">
-        <v>0.1361416008230624</v>
+        <v>0.05647579677367187</v>
       </c>
       <c r="D93">
-        <v>0.3169720614042479</v>
+        <v>0.3524830550974974</v>
       </c>
       <c r="E93">
-        <v>-0.1887672387411856</v>
+        <v>0.1210411411905219</v>
       </c>
       <c r="F93">
-        <v>0.03622505633250267</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.1446465235387532</v>
+      </c>
+      <c r="G93">
+        <v>-0.02552915476230661</v>
+      </c>
+      <c r="H93">
+        <v>-0.01346686661800994</v>
+      </c>
+      <c r="I93">
+        <v>-0.0271581712430639</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.265681631339349</v>
+        <v>-0.2875920973100797</v>
       </c>
       <c r="C94">
-        <v>0.105138277131033</v>
+        <v>-0.07329779393974001</v>
       </c>
       <c r="D94">
-        <v>0.008786114191112526</v>
+        <v>-0.02698806805182419</v>
       </c>
       <c r="E94">
-        <v>0.006492111286551741</v>
+        <v>0.0387535793554441</v>
       </c>
       <c r="F94">
-        <v>0.2377271125788889</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.1334489100227177</v>
+      </c>
+      <c r="G94">
+        <v>-0.285156156508622</v>
+      </c>
+      <c r="H94">
+        <v>-0.01039668555840545</v>
+      </c>
+      <c r="I94">
+        <v>0.2213720420162117</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1457503233270505</v>
+        <v>-0.1169682084452979</v>
       </c>
       <c r="C95">
-        <v>-0.01441843216929258</v>
+        <v>-0.06337996617708753</v>
       </c>
       <c r="D95">
-        <v>-0.185266206870457</v>
+        <v>-0.09071061892162872</v>
       </c>
       <c r="E95">
-        <v>0.0308796366521344</v>
+        <v>0.0687185512143398</v>
       </c>
       <c r="F95">
-        <v>0.4476610712157067</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.03644108931725612</v>
+      </c>
+      <c r="G95">
+        <v>-0.07093087448672548</v>
+      </c>
+      <c r="H95">
+        <v>-0.1511854406559341</v>
+      </c>
+      <c r="I95">
+        <v>-0.863150450447243</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2037177445289556</v>
+        <v>-0.205923772663601</v>
       </c>
       <c r="C98">
-        <v>0.05008218965349463</v>
+        <v>-0.04059799563174763</v>
       </c>
       <c r="D98">
-        <v>0.00861597237082623</v>
+        <v>0.007569674668901123</v>
       </c>
       <c r="E98">
-        <v>-0.08758706084413956</v>
+        <v>0.06948730567101559</v>
       </c>
       <c r="F98">
-        <v>-0.1077130749169678</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.01360959424502667</v>
+      </c>
+      <c r="G98">
+        <v>0.2232534407189487</v>
+      </c>
+      <c r="H98">
+        <v>0.3684644243862419</v>
+      </c>
+      <c r="I98">
+        <v>-0.02630083664946126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3597,130 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.002258662150010663</v>
+        <v>-0.01495614701412956</v>
       </c>
       <c r="C101">
-        <v>0.01424234338430065</v>
+        <v>-0.00258642267139986</v>
       </c>
       <c r="D101">
-        <v>-0.06204518837243363</v>
+        <v>-0.02434724710248094</v>
       </c>
       <c r="E101">
-        <v>0.04515513331821665</v>
+        <v>-0.008381388489768455</v>
       </c>
       <c r="F101">
-        <v>-0.02121979448952092</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.04158586339461941</v>
+      </c>
+      <c r="G101">
+        <v>0.07332749482769829</v>
+      </c>
+      <c r="H101">
+        <v>-0.1180126528124937</v>
+      </c>
+      <c r="I101">
+        <v>0.01930511048676767</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.08927992298272192</v>
+        <v>-0.1114204907058617</v>
       </c>
       <c r="C102">
-        <v>0.02210048301543953</v>
+        <v>-0.02484802041587742</v>
       </c>
       <c r="D102">
-        <v>-0.0409069133048335</v>
+        <v>-0.03676946628277426</v>
       </c>
       <c r="E102">
-        <v>0.04484090459450556</v>
+        <v>-0.004906775916108646</v>
       </c>
       <c r="F102">
-        <v>0.1063030809944285</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.05784741935646719</v>
+      </c>
+      <c r="G102">
+        <v>-0.1132290609312182</v>
+      </c>
+      <c r="H102">
+        <v>-0.007764889747272498</v>
+      </c>
+      <c r="I102">
+        <v>0.01078140745214468</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.01490633800141658</v>
+        <v>-0.02372916702328832</v>
       </c>
       <c r="C103">
-        <v>0.009753546498357199</v>
+        <v>-0.007861164880954289</v>
       </c>
       <c r="D103">
-        <v>-0.002045123095479539</v>
+        <v>-0.006013904155715438</v>
       </c>
       <c r="E103">
-        <v>0.005943371844606515</v>
+        <v>-0.008953030112762314</v>
       </c>
       <c r="F103">
-        <v>0.02316043643235476</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.0161976875008874</v>
+      </c>
+      <c r="G103">
+        <v>-0.01977277242515497</v>
+      </c>
+      <c r="H103">
+        <v>-0.01650166848885725</v>
+      </c>
+      <c r="I103">
+        <v>-0.002104652639993539</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.1686410388355472</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9541352998167276</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.1391923751193342</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.04848500240031669</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1651198823487848</v>
+      </c>
+      <c r="G104">
+        <v>-0.03873543031461473</v>
+      </c>
+      <c r="H104">
+        <v>-0.01206831308245295</v>
+      </c>
+      <c r="I104">
+        <v>-0.008305516672074489</v>
       </c>
     </row>
   </sheetData>
